--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1399322.393605887</v>
+        <v>-1401878.22000402</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12574568.46673314</v>
+        <v>12561851.30939063</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14518071.87678357</v>
+        <v>14521039.70033569</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37.93649886016362</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>112.4104137223017</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,7 +823,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>61.52645244667747</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>219.1236079623842</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>320.1002441188282</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>155.3568880422083</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>199.6710892234273</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>206.966045115852</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>40.94023685682416</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>214.022554328346</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>37.28707743115451</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>149.9291332451373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>17.15794421524275</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,7 +1345,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710098</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128544</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856549</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012162</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>105.6507867899587</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>90.14863908058143</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>17.48314223074972</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701368</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>218.6444667192173</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>211.1474991249055</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>134.3852063573446</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>187.6310928806084</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634819</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695761</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="H25" t="n">
-        <v>122.8704329402515</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>130.5513683573773</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8253826161918028</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>22.65115569188834</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545297</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808293</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444159</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808191</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652699</v>
+        <v>56.98118882652696</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808191</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808191</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>1888.09808975843</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3212.059949162401</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2958.529472436237</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794323</v>
+        <v>2627.466585092666</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524209</v>
+        <v>2274.697929822552</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.572515263129</v>
+        <v>2274.697929822552</v>
       </c>
       <c r="Y2" t="n">
-        <v>1639.433183287317</v>
+        <v>2274.697929822552</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>629.780563451991</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>460.8443805240842</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300937</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218339</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>799.6142115756892</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1107.914056430609</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1407.243655351022</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1639.851155784682</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1717.461451937196</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1627.630994694724</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1565.483062930404</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1565.483062930404</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U4" t="n">
-        <v>1565.483062930404</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V4" t="n">
-        <v>1310.798574724517</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W4" t="n">
-        <v>1310.798574724517</v>
+        <v>850.5731425955212</v>
       </c>
       <c r="X4" t="n">
-        <v>1082.809023826499</v>
+        <v>850.5731425955212</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>629.780563451991</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2249.271807195285</v>
+        <v>985.0367160257385</v>
       </c>
       <c r="C5" t="n">
-        <v>1880.309290254873</v>
+        <v>985.0367160257385</v>
       </c>
       <c r="D5" t="n">
-        <v>1522.043591648123</v>
+        <v>985.0367160257385</v>
       </c>
       <c r="E5" t="n">
-        <v>1136.255339049879</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>725.2694342602711</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>310.1969841052675</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4586,7 +4586,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
@@ -4598,19 +4598,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520487</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520487</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2635.871647259407</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>2635.871647259407</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>385.564938772426</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C7" t="n">
-        <v>216.6287558445191</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1628.407479617887</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1339.304612743531</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V7" t="n">
-        <v>1084.620124537644</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W7" t="n">
-        <v>795.2029545006831</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="X7" t="n">
-        <v>567.2134036026657</v>
+        <v>776.2700148307995</v>
       </c>
       <c r="Y7" t="n">
-        <v>567.2134036026657</v>
+        <v>734.9162402279468</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1792.126722677732</v>
+        <v>1628.178203944121</v>
       </c>
       <c r="C8" t="n">
-        <v>1792.126722677732</v>
+        <v>1259.215687003709</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>900.949988396959</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>515.1617357987147</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>104.1758310091072</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.266054653544</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y8" t="n">
-        <v>1792.126722677732</v>
+        <v>2014.778044008243</v>
       </c>
     </row>
     <row r="9">
@@ -4875,25 +4875,25 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.1690503969116</v>
+        <v>500.476813167026</v>
       </c>
       <c r="C10" t="n">
-        <v>181.1690503969116</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="D10" t="n">
-        <v>181.1690503969116</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E10" t="n">
-        <v>181.1690503969116</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>181.1690503969116</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
         <v>163.8377936138381</v>
@@ -4957,19 +4957,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,10 +4981,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
         <v>1645.778206672847</v>
@@ -4993,19 +4993,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621292</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251686</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271513</v>
+        <v>651.920382101508</v>
       </c>
       <c r="Y10" t="n">
-        <v>362.8175152271513</v>
+        <v>651.920382101508</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5030,61 +5030,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756268</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468477</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962607</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962607</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038347</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2273.199413378161</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,13 +5264,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,10 +5279,10 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,22 +5291,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466574</v>
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190824</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5461,25 +5461,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>2246.448509608146</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>964.4894946679487</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5528,25 +5528,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797193</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637309</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890283</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.11872044489</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190824</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>810.0653816078141</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>641.1291986799072</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675715</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851784</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851784</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487569</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.46108051051</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="U19" t="n">
-        <v>1756.608083824432</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="V19" t="n">
-        <v>1501.923595618545</v>
+        <v>1942.378057281682</v>
       </c>
       <c r="W19" t="n">
-        <v>1212.506425581584</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1212.506425581584</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>991.7138464380538</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192616</v>
@@ -5753,7 +5753,7 @@
         <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,40 +5762,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797193</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637309</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718124</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.528408326419</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>680.448174698413</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1854.980427813048</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1600.295939607161</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1310.8787695702</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1082.889218672183</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>862.0966395286528</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5978,58 +5978,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355941</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797193</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703778</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969299</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048583</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D25" t="n">
-        <v>594.8179559048583</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E25" t="n">
-        <v>446.9048623224652</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F25" t="n">
-        <v>300.0149148245548</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G25" t="n">
-        <v>300.0149148245548</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6154,7 +6154,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703778</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969299</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876697</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597628</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474271</v>
+        <v>449.485266605716</v>
       </c>
       <c r="E28" t="n">
-        <v>261.8464821474271</v>
+        <v>449.485266605716</v>
       </c>
       <c r="F28" t="n">
-        <v>261.8464821474271</v>
+        <v>449.485266605716</v>
       </c>
       <c r="G28" t="n">
-        <v>94.65038286230703</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6391,7 +6391,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396418</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359457</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614396</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179095</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6479,34 +6479,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703778</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969299</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876697</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>261.012762333092</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6628,7 +6628,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614396</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179095</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.195150674524</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,43 +6856,43 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362708</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516146</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167374</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793926</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348533</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,19 +7090,19 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954152</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380732</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7324,7 +7324,7 @@
         <v>268.5553036345487</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384032</v>
+        <v>151.3734194384031</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,19 +7406,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7427,7 +7427,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,13 +7485,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7503,10 +7503,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319315</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954145</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380724</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311319</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7585,34 +7585,34 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7634,40 +7634,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,34 +7819,34 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8143,10 +8143,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>138.3747553788609</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>344.797342803317</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>91.50755641731843</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,22 +22753,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>128.2425728847644</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>67.39939037420683</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22781,7 +22781,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>62.63359754465235</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>75.37549921168585</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272809</v>
+        <v>127.2568112467068</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012034</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>199.9223080965386</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891647</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23941,19 +23941,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>67.54000767002685</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>75.37549921168551</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890307</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>12.04875628922454</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>98.55338150863571</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>41.54258064659051</v>
       </c>
       <c r="H25" t="n">
-        <v>17.42427990597233</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>34.97276993489157</v>
       </c>
       <c r="H28" t="n">
-        <v>139.4693302300321</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>144.5956654067395</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1059501.493768127</v>
+        <v>1069899.830075113</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1285423.566554898</v>
+        <v>1277695.833289839</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1263886.052784769</v>
+        <v>1263886.052784768</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1263886.052784768</v>
+        <v>1263886.052784769</v>
       </c>
     </row>
     <row r="11">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135401.7127154572</v>
+        <v>136398.8395883682</v>
       </c>
       <c r="C2" t="n">
-        <v>164208.3539728567</v>
+        <v>163211.2270999458</v>
       </c>
       <c r="D2" t="n">
         <v>164208.3539728567</v>
@@ -26326,25 +26326,25 @@
         <v>161429.3199380013</v>
       </c>
       <c r="G2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="H2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="I2" t="n">
         <v>161429.3199380012</v>
       </c>
       <c r="J2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="K2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380011</v>
       </c>
       <c r="L2" t="n">
         <v>164208.3539728568</v>
       </c>
       <c r="M2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="N2" t="n">
         <v>164208.3539728568</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073563</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972772</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363166</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551217</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10751.83355583426</v>
+        <v>13430.06689216532</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.8428831941</v>
+        <v>89948.20693708517</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184264</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184269</v>
+        <v>13606.80811184272</v>
       </c>
       <c r="L4" t="n">
-        <v>21597.66737493622</v>
+        <v>21597.6673749362</v>
       </c>
       <c r="M4" t="n">
-        <v>21597.66737493612</v>
+        <v>21597.6673749362</v>
       </c>
       <c r="N4" t="n">
         <v>21597.66737493622</v>
@@ -26457,7 +26457,7 @@
         <v>21597.66737493622</v>
       </c>
       <c r="P4" t="n">
-        <v>21597.66737493619</v>
+        <v>21597.66737493621</v>
       </c>
     </row>
     <row r="5">
@@ -26476,25 +26476,25 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
         <v>103164.1158539154</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1312028.807129363</v>
+        <v>-1314057.532522589</v>
       </c>
       <c r="C6" t="n">
-        <v>-36519.42947173072</v>
+        <v>-34683.38448444403</v>
       </c>
       <c r="D6" t="n">
-        <v>-36519.42947173069</v>
+        <v>-36519.4294717306</v>
       </c>
       <c r="E6" t="n">
-        <v>-278712.4798051049</v>
+        <v>-278747.2177305396</v>
       </c>
       <c r="F6" t="n">
-        <v>46699.98200225137</v>
+        <v>46665.24407681572</v>
       </c>
       <c r="G6" t="n">
-        <v>46699.98200225132</v>
+        <v>46665.24407681571</v>
       </c>
       <c r="H6" t="n">
-        <v>46699.98200225132</v>
+        <v>46665.24407681574</v>
       </c>
       <c r="I6" t="n">
-        <v>46699.98200225143</v>
+        <v>46665.24407681571</v>
       </c>
       <c r="J6" t="n">
-        <v>-170831.2203950259</v>
+        <v>-170865.9583204617</v>
       </c>
       <c r="K6" t="n">
-        <v>46699.98200225126</v>
+        <v>46665.24407681559</v>
       </c>
       <c r="L6" t="n">
-        <v>20018.85275037349</v>
+        <v>20018.85275037348</v>
       </c>
       <c r="M6" t="n">
-        <v>-45608.45719150703</v>
+        <v>-45608.45719150658</v>
       </c>
       <c r="N6" t="n">
-        <v>39446.57074400531</v>
+        <v>39446.57074400515</v>
       </c>
       <c r="O6" t="n">
-        <v>39446.57074400505</v>
+        <v>39446.57074400509</v>
       </c>
       <c r="P6" t="n">
-        <v>39446.57074400521</v>
+        <v>39446.57074400515</v>
       </c>
     </row>
   </sheetData>
@@ -26713,10 +26713,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203973</v>
@@ -26725,7 +26725,7 @@
         <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341675</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483766</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022917</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973571</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>226.5734820300535</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>94.93667516389317</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>12.58290416031724</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>177.6444164952706</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>140.6604872923369</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>373.6346482222989</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>29.90284693680005</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>148.8678640437855</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28065,7 +28065,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.528519961853608e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>7.352696229645516e-12</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-1.244302867549568e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>6.41004286687045e-12</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-1.350599632132798e-12</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348437</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135344</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.544175081758</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175681</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159432</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460034</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236513</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669226</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043728</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.0736191065153</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420757</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422589</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473077</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145756</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437247</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485293</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742442</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937735</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275956</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189905</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121572</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869279</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796263</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.602080235518</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588156</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392048</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.676771792006</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515929</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532769</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467223</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145765</v>
+        <v>357.9244589488877</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.87657862147</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,43 +32303,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862125</v>
+        <v>338.1920576279218</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>225.4828684302361</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485292</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32397,31 +32397,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
         <v>0.1345549672467222</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,37 +32546,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>506.566534435232</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>555.0107214892107</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -32740,7 +32740,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,37 +32783,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32880,7 +32880,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236488</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32977,7 +32977,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,37 +33020,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338196</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33117,7 +33117,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33214,7 +33214,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,37 +33257,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33354,7 +33354,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159405</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33451,7 +33451,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,34 +33497,34 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33591,7 +33591,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33688,7 +33688,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33737,31 +33737,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558004</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>248.3870916262918</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33828,7 +33828,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33925,7 +33925,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33974,19 +33974,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>444.2274915982885</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,7 +33998,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34065,7 +34065,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669205</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34162,7 +34162,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34211,31 +34211,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>163.1438255932933</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34302,7 +34302,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>377.6350660745944</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>311.4139847019392</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317398</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396423</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367775</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462694</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902954</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243166</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683818</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924731</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.158224775409</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678999</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674335</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312423</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992803</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625077</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096352</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754089</v>
@@ -35732,13 +35732,13 @@
         <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312432</v>
+        <v>226.5827468655544</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071398</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641942</v>
+        <v>196.0580237059035</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>82.88662398579163</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625077</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.6317733066269</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>364.4325005132137</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>423.6690094058774</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394536</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36525,7 +36525,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060455</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394542</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36762,7 +36762,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394538</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -36999,7 +36999,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193496</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111713</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819473</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.165419911356</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111713</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819473</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980852</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>302.0934576762701</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37704,13 +37704,13 @@
         <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111713</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819473</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980852</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>20.5475811488489</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,13 +37941,13 @@
         <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111713</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819473</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980852</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>235.5010321525761</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
